--- a/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing\TMSNew\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0F57BD-27D7-43AB-9708-3EE5FD0C8A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD5343-A551-4B8C-B817-FBE76F1418C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Abc@1234</t>
+  </si>
+  <si>
+    <t>Full Stack Development </t>
+  </si>
+  <si>
+    <t>Data Science &amp; Analytics </t>
+  </si>
+  <si>
+    <t>Cyber Security Analyst </t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>Robotic Process Automation</t>
   </si>
 </sst>
 </file>
@@ -407,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,7 +433,7 @@
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,8 +464,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -480,6 +498,24 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing\TMSNew\ICTAK\TrainerManagementSystem\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD5343-A551-4B8C-B817-FBE76F1418C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E7F51-BC78-4320-A1F1-806B3362C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,30 +57,15 @@
     <t>Retypepassword</t>
   </si>
   <si>
-    <t>Diya</t>
-  </si>
-  <si>
-    <t>diya123@gmail.com</t>
-  </si>
-  <si>
-    <t>thrissur</t>
-  </si>
-  <si>
     <t>MCA</t>
   </si>
   <si>
     <t>python</t>
   </si>
   <si>
-    <t>Exponential Solutions</t>
-  </si>
-  <si>
     <t>Trainer</t>
   </si>
   <si>
-    <t>Abc@1234</t>
-  </si>
-  <si>
     <t>Full Stack Development </t>
   </si>
   <si>
@@ -94,6 +79,21 @@
   </si>
   <si>
     <t>Robotic Process Automation</t>
+  </si>
+  <si>
+    <t>sansastark@gmail.com</t>
+  </si>
+  <si>
+    <t>Kings Landing</t>
+  </si>
+  <si>
+    <t>Game of Thrones</t>
+  </si>
+  <si>
+    <t>Sansa@1234</t>
+  </si>
+  <si>
+    <t>Sansa</t>
   </si>
 </sst>
 </file>
@@ -425,15 +425,15 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,57 +465,57 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>7569264115</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
         <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4E7F51-BC78-4320-A1F1-806B3362C091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E010BB4C-7DC0-4EE0-9C6D-562D73AD3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Robotic Process Automation</t>
   </si>
   <si>
-    <t>sansastark@gmail.com</t>
-  </si>
-  <si>
     <t>Kings Landing</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Sansa</t>
+  </si>
+  <si>
+    <t>1sansastark@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,16 +470,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C3">
         <v>7569264115</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -488,16 +488,16 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>

--- a/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
+++ b/TrainerManagementSystem/src/main/resources/SignupExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Eclipse\GitHub\ICTAK\TrainerManagementSystem\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E010BB4C-7DC0-4EE0-9C6D-562D73AD3089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F602F7-9CF5-4171-83FC-56D8754B159E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>Sansa</t>
   </si>
   <si>
-    <t>1sansastark@gmail.com</t>
+    <t>sansa.stark@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
